--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>AP @[IoU=0.75|area=all|maxDets=100]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>AR @[IoU=0.50:0.95|area=all|maxDets=10]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AR @[IoU=0.50:0.95|area=all|maxDets=100]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Backbone</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Interpolation</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FPS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>DeviceType</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DeviceName</t>
         </is>
@@ -505,54 +510,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6608755452943813</v>
+        <v>0.7221263233236348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.767249397869448</v>
+        <v>0.9579426033664123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7111101794091342</v>
+        <v>0.8522887929762966</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7389301380760483</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11class</t>
-        </is>
+        <v>0.7094812807118365</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7976062793665961</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2class</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>CPNDET</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>DLA34</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>20000</v>
       </c>
-      <c r="K2" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>testdev</t>
-        </is>
+      <c r="L2" t="n">
+        <v>16.82</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>minival</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NVIDIA GeForce RTX 3090</t>
         </is>
@@ -563,54 +571,57 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6704539981709109</v>
+        <v>0.7185887908613902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7779457655527271</v>
+        <v>0.9546288086564942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7192727453526888</v>
+        <v>0.8499115917026857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7455219020489898</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11class</t>
-        </is>
+        <v>0.7177386156453692</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7963820264713452</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>2class</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>CPNDET</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>DLA34</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>20000</v>
       </c>
-      <c r="K3" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>minival</t>
-        </is>
+      <c r="L3" t="n">
+        <v>16.55</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>testdev</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NVIDIA GeForce RTX 3090</t>
         </is>
@@ -621,54 +632,57 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6475488992108831</v>
+        <v>0.6506703313937329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7493943739425375</v>
+        <v>0.93113901233626</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7041886716950401</v>
+        <v>0.7513028816191037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7341803739005109</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>0.7055620450876474</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7344068959246737</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>11class</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>CPNDET</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>HG104</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>bilinear</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>30000</v>
       </c>
-      <c r="K4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>testdev</t>
-        </is>
+      <c r="L4" t="n">
+        <v>5.69</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>minival</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NVIDIA GeForce RTX 3090</t>
         </is>
@@ -679,54 +693,57 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6506703313937329</v>
+        <v>0.6475488992108831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7513028816191037</v>
+        <v>0.9243058139962332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7055620450876474</v>
+        <v>0.7493943739425375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7344068959246737</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>0.7041886716950401</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7341803739005109</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>11class</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CPNDET</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>HG104</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>bilinear</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>30000</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>minival</t>
-        </is>
+      <c r="L5" t="n">
+        <v>5.83</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>testdev</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NVIDIA GeForce RTX 3090</t>
         </is>
@@ -737,54 +754,57 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6674334419434992</v>
+        <v>0.7239646142240636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7820258650697992</v>
+        <v>0.9546033818088812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7175858845954919</v>
+        <v>0.8607214408548606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7462607891090847</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11class</t>
-        </is>
+        <v>0.7117223165684102</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8034456447575445</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>2class</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>CPNDET</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>HG52</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>HG104</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>bilinear</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>30000</v>
-      </c>
       <c r="K6" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>testdev</t>
-        </is>
+        <v>20000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.24</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>minival</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NVIDIA GeForce RTX 3090</t>
         </is>
@@ -795,54 +815,423 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
+        <v>0.7196136307037221</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9504484278986144</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8526943420224651</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7167281254764103</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7975731404214692</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2class</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CPNDET</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HG104</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bilinear</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>testdev</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX 3090</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.6793980351320487</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
+        <v>0.9401458567780362</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.7966387828427852</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E8" t="n">
         <v>0.7264500246630251</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F8" t="n">
         <v>0.7537566577659568</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>11class</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>CPNDET</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>HG52</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>bilinear</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="K8" t="n">
         <v>30000</v>
       </c>
-      <c r="K7" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>minival</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX 3090</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6674334419434992</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9255001304610287</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7820258650697992</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7175858845954919</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7462607891090847</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11class</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CPNDET</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HG52</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bilinear</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>testdev</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX 3090</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6786830180911424</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9405268116080376</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7852960034071624</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7263187018406109</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7539472808684079</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>11class</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CPNDET</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HG52</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bicubic</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>minival</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX 3090</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6693455260453293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9262094831945048</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7816133314823931</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7206187359255952</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7495926741858697</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11class</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CPNDET</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>HG52</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bicubic</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>testdev</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX 3090</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7197018953673453</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9582388863701936</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8544051956247952</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7115505562837791</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8043275574094759</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2class</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CPNDET</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>HG52</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bilinear</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>minival</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX 3090</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.721778918076856</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9557434825285896</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8530747369562288</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.718338142563376</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8028151137900847</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2class</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CPNDET</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>HG52</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bilinear</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>testdev</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>NVIDIA GeForce RTX 3090</t>
         </is>
